--- a/LIS.v10/LIS.v10/Tasks101.xlsx
+++ b/LIS.v10/LIS.v10/Tasks101.xlsx
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,9 +457,10 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75">
+    <row r="2" spans="2:5" ht="15.75">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -467,19 +468,20 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -487,13 +489,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:5">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -501,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -509,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -517,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -525,7 +527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5">
       <c r="C16" t="s">
         <v>9</v>
       </c>

--- a/LIS.v10/LIS.v10/Tasks101.xlsx
+++ b/LIS.v10/LIS.v10/Tasks101.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Description</t>
   </si>
@@ -88,13 +88,29 @@
   </si>
   <si>
     <t>getLastUpdate</t>
+  </si>
+  <si>
+    <r>
+      <t>Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SmsService1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +130,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,6 +181,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,6 +299,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,14 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -459,7 +490,7 @@
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -468,18 +499,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -487,13 +518,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -501,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -509,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -517,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -525,47 +556,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -577,24 +611,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
